--- a/R23.xlsx
+++ b/R23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\attempt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\sam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426B45F0-45F9-4A66-AB35-60BD18B19A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B074243E-EC20-4CAC-8944-40A1C5263BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{53756446-28BA-4356-8E70-19FCBDF2B3AC}"/>
   </bookViews>
@@ -30,15 +30,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>ANNUAL 2018</t>
-  </si>
-  <si>
-    <t>ANNUAL 2019</t>
-  </si>
-  <si>
-    <t>ANNUAL 2020</t>
-  </si>
-  <si>
     <t>NOV 2021 YTD</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>ANNUAL2018</t>
+  </si>
+  <si>
+    <t>ANNUAL2019</t>
+  </si>
+  <si>
+    <t>ANNUAL2020</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,21 +469,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>4741286105</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>3211588811</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1475721717</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>1718620926</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>320246260</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>2215477649</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>8648664405</v>

--- a/R23.xlsx
+++ b/R23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\sam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B074243E-EC20-4CAC-8944-40A1C5263BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01159CB3-5401-41E2-8B11-6B73055703DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{53756446-28BA-4356-8E70-19FCBDF2B3AC}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>NOV 2021 YTD</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>ANNUAL2020</t>
+  </si>
+  <si>
+    <t>NOV2021YTD</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,21 +469,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>4741286105</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>3211588811</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>1475721717</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1718620926</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>320246260</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>2215477649</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>8648664405</v>

--- a/R23.xlsx
+++ b/R23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\Documents\GitHub\sam3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01159CB3-5401-41E2-8B11-6B73055703DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E92FBE-0973-4CD6-BAEB-5EBCF969B44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{53756446-28BA-4356-8E70-19FCBDF2B3AC}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
